--- a/raw_data/Monthly incidences of different types.xlsx
+++ b/raw_data/Monthly incidences of different types.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
